--- a/aimara_verbos.xlsx
+++ b/aimara_verbos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documentos\GitHub\Conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/aimara_verbos.xlsx
+++ b/aimara_verbos.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="aimara" sheetId="1" r:id="rId1"/>
+    <sheet name="quechua" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>espanol</t>
   </si>
@@ -60,16 +61,41 @@
   </si>
   <si>
     <t>jallu</t>
+  </si>
+  <si>
+    <t>quechua</t>
+  </si>
+  <si>
+    <t>puklla</t>
+  </si>
+  <si>
+    <t>mikhu</t>
+  </si>
+  <si>
+    <t>puñu</t>
+  </si>
+  <si>
+    <t>waqa</t>
+  </si>
+  <si>
+    <t>para</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,8 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -436,4 +464,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/aimara_verbos.xlsx
+++ b/aimara_verbos.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="aimara" sheetId="1" r:id="rId1"/>
-    <sheet name="quechua" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>espanol</t>
   </si>
@@ -61,41 +60,16 @@
   </si>
   <si>
     <t>jallu</t>
-  </si>
-  <si>
-    <t>quechua</t>
-  </si>
-  <si>
-    <t>puklla</t>
-  </si>
-  <si>
-    <t>mikhu</t>
-  </si>
-  <si>
-    <t>puñu</t>
-  </si>
-  <si>
-    <t>waqa</t>
-  </si>
-  <si>
-    <t>para</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202122"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,10 +95,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -464,67 +436,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>